--- a/Statystyki_2018/Template/oopc.xlsx
+++ b/Statystyki_2018/Template/oopc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProjects\prv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA77D4B-A9AF-4F83-9FA9-FDE13CEF2E8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8378A56A-EE45-43D7-B389-2CECD62F227A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -591,99 +591,99 @@
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -968,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3743AA-C817-4173-820D-58C1C37007FD}">
   <dimension ref="A2:DN6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CY1" workbookViewId="0">
-      <selection activeCell="DG1" sqref="DG1:DI1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="DM7" sqref="DM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -981,1033 +981,934 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:118" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2" t="s">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2" t="s">
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
-      <c r="BF2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BH2" s="2"/>
-      <c r="BI2" s="2"/>
-      <c r="BJ2" s="2"/>
-      <c r="BK2" s="2"/>
-      <c r="BL2" s="4" t="s">
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="26"/>
+      <c r="BC2" s="26"/>
+      <c r="BD2" s="26"/>
+      <c r="BE2" s="26"/>
+      <c r="BF2" s="26"/>
+      <c r="BG2" s="26"/>
+      <c r="BH2" s="26"/>
+      <c r="BI2" s="26"/>
+      <c r="BJ2" s="26"/>
+      <c r="BK2" s="26"/>
+      <c r="BL2" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="BM2" s="4"/>
-      <c r="BN2" s="4"/>
-      <c r="BO2" s="2" t="s">
+      <c r="BM2" s="29"/>
+      <c r="BN2" s="29"/>
+      <c r="BO2" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="BP2" s="2"/>
-      <c r="BQ2" s="2"/>
-      <c r="BR2" s="2"/>
-      <c r="BS2" s="2"/>
-      <c r="BT2" s="2"/>
-      <c r="BU2" s="2"/>
-      <c r="BV2" s="2"/>
-      <c r="BW2" s="2"/>
-      <c r="BX2" s="2"/>
-      <c r="BY2" s="2"/>
-      <c r="BZ2" s="2"/>
-      <c r="CA2" s="2" t="s">
+      <c r="BP2" s="26"/>
+      <c r="BQ2" s="26"/>
+      <c r="BR2" s="26"/>
+      <c r="BS2" s="26"/>
+      <c r="BT2" s="26"/>
+      <c r="BU2" s="26"/>
+      <c r="BV2" s="26"/>
+      <c r="BW2" s="26"/>
+      <c r="BX2" s="26"/>
+      <c r="BY2" s="26"/>
+      <c r="BZ2" s="26"/>
+      <c r="CA2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="CB2" s="2"/>
-      <c r="CC2" s="2"/>
-      <c r="CD2" s="2"/>
-      <c r="CE2" s="2"/>
-      <c r="CF2" s="2"/>
-      <c r="CG2" s="2"/>
-      <c r="CH2" s="2"/>
-      <c r="CI2" s="2"/>
-      <c r="CJ2" s="2" t="s">
+      <c r="CB2" s="26"/>
+      <c r="CC2" s="26"/>
+      <c r="CD2" s="26"/>
+      <c r="CE2" s="26"/>
+      <c r="CF2" s="26"/>
+      <c r="CG2" s="26"/>
+      <c r="CH2" s="26"/>
+      <c r="CI2" s="26"/>
+      <c r="CJ2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="CK2" s="2"/>
-      <c r="CL2" s="2"/>
-      <c r="CM2" s="5" t="s">
+      <c r="CK2" s="26"/>
+      <c r="CL2" s="26"/>
+      <c r="CM2" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="CN2" s="5"/>
-      <c r="CO2" s="5"/>
-      <c r="CP2" s="5"/>
-      <c r="CQ2" s="5"/>
-      <c r="CR2" s="5"/>
-      <c r="CS2" s="5"/>
-      <c r="CT2" s="5"/>
-      <c r="CU2" s="5"/>
-      <c r="CV2" s="5"/>
-      <c r="CW2" s="5"/>
-      <c r="CX2" s="5"/>
-      <c r="CY2" s="5"/>
-      <c r="CZ2" s="5"/>
-      <c r="DA2" s="5"/>
-      <c r="DB2" s="5"/>
-      <c r="DC2" s="2" t="s">
+      <c r="CN2" s="30"/>
+      <c r="CO2" s="30"/>
+      <c r="CP2" s="30"/>
+      <c r="CQ2" s="30"/>
+      <c r="CR2" s="30"/>
+      <c r="CS2" s="30"/>
+      <c r="CT2" s="30"/>
+      <c r="CU2" s="30"/>
+      <c r="CV2" s="30"/>
+      <c r="CW2" s="30"/>
+      <c r="CX2" s="30"/>
+      <c r="CY2" s="30"/>
+      <c r="CZ2" s="30"/>
+      <c r="DA2" s="30"/>
+      <c r="DB2" s="30"/>
+      <c r="DC2" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="DD2" s="2"/>
-      <c r="DE2" s="2"/>
-      <c r="DF2" s="2"/>
-      <c r="DG2" s="2" t="s">
+      <c r="DD2" s="26"/>
+      <c r="DE2" s="26"/>
+      <c r="DF2" s="26"/>
+      <c r="DG2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="DH2" s="2"/>
-      <c r="DI2" s="2"/>
-      <c r="DJ2" s="6" t="s">
+      <c r="DH2" s="26"/>
+      <c r="DI2" s="26"/>
+      <c r="DJ2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="DK2" s="7" t="s">
+      <c r="DK2" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="DL2" s="7"/>
-      <c r="DM2" s="8"/>
-      <c r="DN2" s="9"/>
+      <c r="DL2" s="28"/>
+      <c r="DM2" s="2"/>
+      <c r="DN2" s="3"/>
     </row>
     <row r="3" spans="1:118" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BH3" s="2"/>
-      <c r="BI3" s="2"/>
-      <c r="BJ3" s="2"/>
-      <c r="BK3" s="2"/>
-      <c r="BL3" s="4"/>
-      <c r="BM3" s="4"/>
-      <c r="BN3" s="4"/>
-      <c r="BO3" s="2"/>
-      <c r="BP3" s="2"/>
-      <c r="BQ3" s="2"/>
-      <c r="BR3" s="2"/>
-      <c r="BS3" s="2"/>
-      <c r="BT3" s="2"/>
-      <c r="BU3" s="2"/>
-      <c r="BV3" s="2"/>
-      <c r="BW3" s="2"/>
-      <c r="BX3" s="2"/>
-      <c r="BY3" s="2"/>
-      <c r="BZ3" s="2"/>
-      <c r="CA3" s="2"/>
-      <c r="CB3" s="2"/>
-      <c r="CC3" s="2"/>
-      <c r="CD3" s="2"/>
-      <c r="CE3" s="2"/>
-      <c r="CF3" s="2"/>
-      <c r="CG3" s="2"/>
-      <c r="CH3" s="2"/>
-      <c r="CI3" s="2"/>
-      <c r="CJ3" s="2"/>
-      <c r="CK3" s="2"/>
-      <c r="CL3" s="2"/>
-      <c r="CM3" s="5"/>
-      <c r="CN3" s="5"/>
-      <c r="CO3" s="5"/>
-      <c r="CP3" s="5"/>
-      <c r="CQ3" s="5"/>
-      <c r="CR3" s="5"/>
-      <c r="CS3" s="5"/>
-      <c r="CT3" s="5"/>
-      <c r="CU3" s="5"/>
-      <c r="CV3" s="5"/>
-      <c r="CW3" s="5"/>
-      <c r="CX3" s="5"/>
-      <c r="CY3" s="5"/>
-      <c r="CZ3" s="5"/>
-      <c r="DA3" s="5"/>
-      <c r="DB3" s="5"/>
-      <c r="DC3" s="2"/>
-      <c r="DD3" s="2"/>
-      <c r="DE3" s="2"/>
-      <c r="DF3" s="2"/>
-      <c r="DG3" s="2"/>
-      <c r="DH3" s="2"/>
-      <c r="DI3" s="2"/>
-      <c r="DJ3" s="6"/>
-      <c r="DK3" s="7"/>
-      <c r="DL3" s="7"/>
-      <c r="DM3" s="8"/>
-      <c r="DN3" s="9"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="26"/>
+      <c r="AX3" s="26"/>
+      <c r="AY3" s="26"/>
+      <c r="AZ3" s="26"/>
+      <c r="BA3" s="26"/>
+      <c r="BB3" s="26"/>
+      <c r="BC3" s="26"/>
+      <c r="BD3" s="26"/>
+      <c r="BE3" s="26"/>
+      <c r="BF3" s="26"/>
+      <c r="BG3" s="26"/>
+      <c r="BH3" s="26"/>
+      <c r="BI3" s="26"/>
+      <c r="BJ3" s="26"/>
+      <c r="BK3" s="26"/>
+      <c r="BL3" s="29"/>
+      <c r="BM3" s="29"/>
+      <c r="BN3" s="29"/>
+      <c r="BO3" s="26"/>
+      <c r="BP3" s="26"/>
+      <c r="BQ3" s="26"/>
+      <c r="BR3" s="26"/>
+      <c r="BS3" s="26"/>
+      <c r="BT3" s="26"/>
+      <c r="BU3" s="26"/>
+      <c r="BV3" s="26"/>
+      <c r="BW3" s="26"/>
+      <c r="BX3" s="26"/>
+      <c r="BY3" s="26"/>
+      <c r="BZ3" s="26"/>
+      <c r="CA3" s="26"/>
+      <c r="CB3" s="26"/>
+      <c r="CC3" s="26"/>
+      <c r="CD3" s="26"/>
+      <c r="CE3" s="26"/>
+      <c r="CF3" s="26"/>
+      <c r="CG3" s="26"/>
+      <c r="CH3" s="26"/>
+      <c r="CI3" s="26"/>
+      <c r="CJ3" s="26"/>
+      <c r="CK3" s="26"/>
+      <c r="CL3" s="26"/>
+      <c r="CM3" s="30"/>
+      <c r="CN3" s="30"/>
+      <c r="CO3" s="30"/>
+      <c r="CP3" s="30"/>
+      <c r="CQ3" s="30"/>
+      <c r="CR3" s="30"/>
+      <c r="CS3" s="30"/>
+      <c r="CT3" s="30"/>
+      <c r="CU3" s="30"/>
+      <c r="CV3" s="30"/>
+      <c r="CW3" s="30"/>
+      <c r="CX3" s="30"/>
+      <c r="CY3" s="30"/>
+      <c r="CZ3" s="30"/>
+      <c r="DA3" s="30"/>
+      <c r="DB3" s="30"/>
+      <c r="DC3" s="26"/>
+      <c r="DD3" s="26"/>
+      <c r="DE3" s="26"/>
+      <c r="DF3" s="26"/>
+      <c r="DG3" s="26"/>
+      <c r="DH3" s="26"/>
+      <c r="DI3" s="26"/>
+      <c r="DJ3" s="27"/>
+      <c r="DK3" s="28"/>
+      <c r="DL3" s="28"/>
+      <c r="DM3" s="2"/>
+      <c r="DN3" s="3"/>
     </row>
     <row r="4" spans="1:118" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="10" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11" t="s">
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11" t="s">
+      <c r="S4" s="14"/>
+      <c r="T4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11" t="s">
+      <c r="U4" s="14"/>
+      <c r="V4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11" t="s">
+      <c r="W4" s="14"/>
+      <c r="X4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11" t="s">
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11" t="s">
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="31" t="s">
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31" t="s">
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="12" t="s">
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="11" t="s">
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11" t="s">
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11" t="s">
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11" t="s">
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="11" t="s">
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="11" t="s">
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="31" t="s">
+      <c r="AU4" s="14"/>
+      <c r="AV4" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="31" t="s">
+      <c r="AW4" s="25"/>
+      <c r="AX4" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="AY4" s="31"/>
-      <c r="AZ4" s="10" t="s">
+      <c r="AY4" s="25"/>
+      <c r="AZ4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="BA4" s="11" t="s">
+      <c r="BA4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="BB4" s="11" t="s">
+      <c r="BB4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="BC4" s="11" t="s">
+      <c r="BC4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="BD4" s="11" t="s">
+      <c r="BD4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="BE4" s="11" t="s">
+      <c r="BE4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="BF4" s="11" t="s">
+      <c r="BF4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="BG4" s="11"/>
-      <c r="BH4" s="11" t="s">
+      <c r="BG4" s="14"/>
+      <c r="BH4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="BI4" s="11" t="s">
+      <c r="BI4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="BJ4" s="33" t="s">
+      <c r="BJ4" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="BK4" s="33" t="s">
+      <c r="BK4" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="BL4" s="13" t="s">
+      <c r="BL4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="BM4" s="14" t="s">
+      <c r="BM4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="BN4" s="14"/>
-      <c r="BO4" s="10" t="s">
+      <c r="BN4" s="23"/>
+      <c r="BO4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="BP4" s="11" t="s">
+      <c r="BP4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="BQ4" s="11" t="s">
+      <c r="BQ4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="BR4" s="11" t="s">
+      <c r="BR4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="BS4" s="11" t="s">
+      <c r="BS4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="BT4" s="11" t="s">
+      <c r="BT4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="BU4" s="11" t="s">
+      <c r="BU4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="BV4" s="11"/>
-      <c r="BW4" s="11" t="s">
+      <c r="BV4" s="14"/>
+      <c r="BW4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="BX4" s="11" t="s">
+      <c r="BX4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="BY4" s="33" t="s">
+      <c r="BY4" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="BZ4" s="33" t="s">
+      <c r="BZ4" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="CA4" s="11" t="s">
+      <c r="CA4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="CB4" s="15" t="s">
+      <c r="CB4" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="CC4" s="15" t="s">
+      <c r="CC4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="CD4" s="15" t="s">
+      <c r="CD4" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="CE4" s="15" t="s">
+      <c r="CE4" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="CF4" s="15" t="s">
+      <c r="CF4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="CG4" s="15" t="s">
+      <c r="CG4" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="CH4" s="15" t="s">
+      <c r="CH4" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="CI4" s="15" t="s">
+      <c r="CI4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="CJ4" s="16" t="s">
+      <c r="CJ4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="CK4" s="13" t="s">
+      <c r="CK4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="CL4" s="13" t="s">
+      <c r="CL4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="CM4" s="17" t="s">
+      <c r="CM4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="CN4" s="18" t="s">
+      <c r="CN4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="CO4" s="18" t="s">
+      <c r="CO4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="CP4" s="19" t="s">
+      <c r="CP4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="CQ4" s="20" t="s">
+      <c r="CQ4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="CR4" s="20"/>
-      <c r="CS4" s="20"/>
-      <c r="CT4" s="20"/>
-      <c r="CU4" s="20"/>
-      <c r="CV4" s="20"/>
-      <c r="CW4" s="20"/>
-      <c r="CX4" s="20"/>
-      <c r="CY4" s="21" t="s">
+      <c r="CR4" s="18"/>
+      <c r="CS4" s="18"/>
+      <c r="CT4" s="18"/>
+      <c r="CU4" s="18"/>
+      <c r="CV4" s="18"/>
+      <c r="CW4" s="18"/>
+      <c r="CX4" s="18"/>
+      <c r="CY4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="CZ4" s="21" t="s">
+      <c r="CZ4" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="DA4" s="18" t="s">
+      <c r="DA4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="DB4" s="18"/>
-      <c r="DC4" s="22" t="s">
+      <c r="DB4" s="1"/>
+      <c r="DC4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="DD4" s="23" t="s">
+      <c r="DD4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="DE4" s="23"/>
-      <c r="DF4" s="22" t="s">
+      <c r="DE4" s="16"/>
+      <c r="DF4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="DG4" s="24" t="s">
+      <c r="DG4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="DH4" s="11" t="s">
+      <c r="DH4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="DI4" s="11"/>
-      <c r="DJ4" s="6"/>
-      <c r="DK4" s="7"/>
-      <c r="DL4" s="7"/>
-      <c r="DM4" s="8"/>
-      <c r="DN4" s="9"/>
+      <c r="DI4" s="14"/>
+      <c r="DJ4" s="27"/>
+      <c r="DK4" s="28"/>
+      <c r="DL4" s="28"/>
+      <c r="DM4" s="2"/>
+      <c r="DN4" s="3"/>
     </row>
     <row r="5" spans="1:118" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11">
+      <c r="A5" s="31"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14">
         <v>106</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="14">
         <v>118</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="25" t="s">
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="S5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="T5" s="25" t="s">
+      <c r="T5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="U5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="25" t="s">
+      <c r="V5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="W5" s="25" t="s">
+      <c r="W5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="25" t="s">
+      <c r="X5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Y5" s="25" t="s">
+      <c r="Y5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Z5" s="25" t="s">
+      <c r="Z5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AA5" s="25" t="s">
+      <c r="AA5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AB5" s="25" t="s">
+      <c r="AB5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AC5" s="25" t="s">
+      <c r="AC5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" s="32" t="s">
+      <c r="AD5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AE5" s="32" t="s">
+      <c r="AE5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AF5" s="32" t="s">
+      <c r="AF5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AG5" s="32" t="s">
+      <c r="AG5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AH5" s="25" t="s">
+      <c r="AH5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AI5" s="25" t="s">
+      <c r="AI5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AJ5" s="25" t="s">
+      <c r="AJ5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AK5" s="25" t="s">
+      <c r="AK5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AL5" s="25" t="s">
+      <c r="AL5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AM5" s="25" t="s">
+      <c r="AM5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AN5" s="25" t="s">
+      <c r="AN5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AO5" s="25" t="s">
+      <c r="AO5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AP5" s="25" t="s">
+      <c r="AP5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AQ5" s="25" t="s">
+      <c r="AQ5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AR5" s="25" t="s">
+      <c r="AR5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AS5" s="25" t="s">
+      <c r="AS5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AT5" s="25" t="s">
+      <c r="AT5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AU5" s="25" t="s">
+      <c r="AU5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AV5" s="32" t="s">
+      <c r="AV5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AW5" s="32" t="s">
+      <c r="AW5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AX5" s="32" t="s">
+      <c r="AX5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AY5" s="32" t="s">
+      <c r="AY5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AZ5" s="10"/>
-      <c r="BA5" s="11"/>
-      <c r="BB5" s="11"/>
-      <c r="BC5" s="11"/>
-      <c r="BD5" s="11"/>
-      <c r="BE5" s="11"/>
-      <c r="BF5" s="11">
+      <c r="AZ5" s="24"/>
+      <c r="BA5" s="14"/>
+      <c r="BB5" s="14"/>
+      <c r="BC5" s="14"/>
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="14"/>
+      <c r="BF5" s="14">
         <v>106</v>
       </c>
-      <c r="BG5" s="11">
+      <c r="BG5" s="14">
         <v>118</v>
       </c>
-      <c r="BH5" s="11"/>
-      <c r="BI5" s="11"/>
-      <c r="BJ5" s="33"/>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="13"/>
-      <c r="BM5" s="26" t="s">
+      <c r="BH5" s="14"/>
+      <c r="BI5" s="14"/>
+      <c r="BJ5" s="21"/>
+      <c r="BK5" s="21"/>
+      <c r="BL5" s="12"/>
+      <c r="BM5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="BN5" s="26" t="s">
+      <c r="BN5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="BO5" s="10"/>
-      <c r="BP5" s="11"/>
-      <c r="BQ5" s="11"/>
-      <c r="BR5" s="11"/>
-      <c r="BS5" s="11"/>
-      <c r="BT5" s="11"/>
-      <c r="BU5" s="11">
+      <c r="BO5" s="24"/>
+      <c r="BP5" s="14"/>
+      <c r="BQ5" s="14"/>
+      <c r="BR5" s="14"/>
+      <c r="BS5" s="14"/>
+      <c r="BT5" s="14"/>
+      <c r="BU5" s="14">
         <v>106</v>
       </c>
-      <c r="BV5" s="11">
+      <c r="BV5" s="14">
         <v>118</v>
       </c>
-      <c r="BW5" s="11"/>
-      <c r="BX5" s="11"/>
-      <c r="BY5" s="33"/>
-      <c r="BZ5" s="33"/>
-      <c r="CA5" s="11"/>
-      <c r="CB5" s="15"/>
-      <c r="CC5" s="15"/>
-      <c r="CD5" s="15"/>
-      <c r="CE5" s="15"/>
-      <c r="CF5" s="15"/>
-      <c r="CG5" s="15"/>
-      <c r="CH5" s="15"/>
-      <c r="CI5" s="15"/>
-      <c r="CJ5" s="16"/>
-      <c r="CK5" s="13"/>
-      <c r="CL5" s="13"/>
-      <c r="CM5" s="17"/>
-      <c r="CN5" s="18"/>
-      <c r="CO5" s="18"/>
-      <c r="CP5" s="19"/>
-      <c r="CQ5" s="20"/>
-      <c r="CR5" s="20"/>
-      <c r="CS5" s="20"/>
-      <c r="CT5" s="20"/>
-      <c r="CU5" s="20"/>
-      <c r="CV5" s="20"/>
-      <c r="CW5" s="20"/>
-      <c r="CX5" s="20"/>
-      <c r="CY5" s="21"/>
-      <c r="CZ5" s="21"/>
-      <c r="DA5" s="18"/>
-      <c r="DB5" s="18"/>
-      <c r="DC5" s="22"/>
-      <c r="DD5" s="27" t="s">
+      <c r="BW5" s="14"/>
+      <c r="BX5" s="14"/>
+      <c r="BY5" s="21"/>
+      <c r="BZ5" s="21"/>
+      <c r="CA5" s="14"/>
+      <c r="CB5" s="19"/>
+      <c r="CC5" s="19"/>
+      <c r="CD5" s="19"/>
+      <c r="CE5" s="19"/>
+      <c r="CF5" s="19"/>
+      <c r="CG5" s="19"/>
+      <c r="CH5" s="19"/>
+      <c r="CI5" s="19"/>
+      <c r="CJ5" s="20"/>
+      <c r="CK5" s="12"/>
+      <c r="CL5" s="12"/>
+      <c r="CM5" s="13"/>
+      <c r="CN5" s="1"/>
+      <c r="CO5" s="1"/>
+      <c r="CP5" s="17"/>
+      <c r="CQ5" s="18"/>
+      <c r="CR5" s="18"/>
+      <c r="CS5" s="18"/>
+      <c r="CT5" s="18"/>
+      <c r="CU5" s="18"/>
+      <c r="CV5" s="18"/>
+      <c r="CW5" s="18"/>
+      <c r="CX5" s="18"/>
+      <c r="CY5" s="15"/>
+      <c r="CZ5" s="15"/>
+      <c r="DA5" s="1"/>
+      <c r="DB5" s="1"/>
+      <c r="DC5" s="10"/>
+      <c r="DD5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="DE5" s="27" t="s">
+      <c r="DE5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="DF5" s="22"/>
-      <c r="DG5" s="18" t="s">
+      <c r="DF5" s="10"/>
+      <c r="DG5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="DH5" s="18" t="s">
+      <c r="DH5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="DI5" s="18" t="s">
+      <c r="DI5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="DJ5" s="6"/>
-      <c r="DK5" s="7"/>
-      <c r="DL5" s="7"/>
-      <c r="DM5" s="8"/>
-      <c r="DN5" s="9"/>
+      <c r="DJ5" s="27"/>
+      <c r="DK5" s="28"/>
+      <c r="DL5" s="28"/>
+      <c r="DM5" s="2"/>
+      <c r="DN5" s="3"/>
     </row>
     <row r="6" spans="1:118" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="25"/>
-      <c r="AR6" s="25"/>
-      <c r="AS6" s="25"/>
-      <c r="AT6" s="25"/>
-      <c r="AU6" s="25"/>
-      <c r="AV6" s="32"/>
-      <c r="AW6" s="32"/>
-      <c r="AX6" s="32"/>
-      <c r="AY6" s="32"/>
-      <c r="AZ6" s="10"/>
-      <c r="BA6" s="11"/>
-      <c r="BB6" s="11"/>
-      <c r="BC6" s="11"/>
-      <c r="BD6" s="11"/>
-      <c r="BE6" s="11"/>
-      <c r="BF6" s="11"/>
-      <c r="BG6" s="11"/>
-      <c r="BH6" s="11"/>
-      <c r="BI6" s="11"/>
-      <c r="BJ6" s="33"/>
-      <c r="BK6" s="33"/>
-      <c r="BL6" s="13"/>
-      <c r="BM6" s="26"/>
-      <c r="BN6" s="26"/>
-      <c r="BO6" s="10"/>
-      <c r="BP6" s="11"/>
-      <c r="BQ6" s="11"/>
-      <c r="BR6" s="11"/>
-      <c r="BS6" s="11"/>
-      <c r="BT6" s="11"/>
-      <c r="BU6" s="11"/>
-      <c r="BV6" s="11"/>
-      <c r="BW6" s="11"/>
-      <c r="BX6" s="11"/>
-      <c r="BY6" s="33"/>
-      <c r="BZ6" s="33"/>
-      <c r="CA6" s="11"/>
-      <c r="CB6" s="15"/>
-      <c r="CC6" s="15"/>
-      <c r="CD6" s="15"/>
-      <c r="CE6" s="15"/>
-      <c r="CF6" s="15"/>
-      <c r="CG6" s="15"/>
-      <c r="CH6" s="15"/>
-      <c r="CI6" s="15"/>
-      <c r="CJ6" s="16"/>
-      <c r="CK6" s="13"/>
-      <c r="CL6" s="13"/>
-      <c r="CM6" s="17"/>
-      <c r="CN6" s="18"/>
-      <c r="CO6" s="18"/>
-      <c r="CP6" s="19"/>
-      <c r="CQ6" s="28" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="24"/>
+      <c r="BA6" s="14"/>
+      <c r="BB6" s="14"/>
+      <c r="BC6" s="14"/>
+      <c r="BD6" s="14"/>
+      <c r="BE6" s="14"/>
+      <c r="BF6" s="14"/>
+      <c r="BG6" s="14"/>
+      <c r="BH6" s="14"/>
+      <c r="BI6" s="14"/>
+      <c r="BJ6" s="21"/>
+      <c r="BK6" s="21"/>
+      <c r="BL6" s="12"/>
+      <c r="BM6" s="22"/>
+      <c r="BN6" s="22"/>
+      <c r="BO6" s="24"/>
+      <c r="BP6" s="14"/>
+      <c r="BQ6" s="14"/>
+      <c r="BR6" s="14"/>
+      <c r="BS6" s="14"/>
+      <c r="BT6" s="14"/>
+      <c r="BU6" s="14"/>
+      <c r="BV6" s="14"/>
+      <c r="BW6" s="14"/>
+      <c r="BX6" s="14"/>
+      <c r="BY6" s="21"/>
+      <c r="BZ6" s="21"/>
+      <c r="CA6" s="14"/>
+      <c r="CB6" s="19"/>
+      <c r="CC6" s="19"/>
+      <c r="CD6" s="19"/>
+      <c r="CE6" s="19"/>
+      <c r="CF6" s="19"/>
+      <c r="CG6" s="19"/>
+      <c r="CH6" s="19"/>
+      <c r="CI6" s="19"/>
+      <c r="CJ6" s="20"/>
+      <c r="CK6" s="12"/>
+      <c r="CL6" s="12"/>
+      <c r="CM6" s="13"/>
+      <c r="CN6" s="1"/>
+      <c r="CO6" s="1"/>
+      <c r="CP6" s="17"/>
+      <c r="CQ6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="28" t="s">
+      <c r="CR6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="CS6" s="28" t="s">
+      <c r="CS6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="CT6" s="28" t="s">
+      <c r="CT6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="CU6" s="28" t="s">
+      <c r="CU6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="CV6" s="28" t="s">
+      <c r="CV6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="CW6" s="28" t="s">
+      <c r="CW6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="CX6" s="28" t="s">
+      <c r="CX6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="CY6" s="21"/>
-      <c r="CZ6" s="21"/>
-      <c r="DA6" s="29" t="s">
+      <c r="CY6" s="15"/>
+      <c r="CZ6" s="15"/>
+      <c r="DA6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="DB6" s="29" t="s">
+      <c r="DB6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="DC6" s="22"/>
-      <c r="DD6" s="27"/>
-      <c r="DE6" s="27"/>
-      <c r="DF6" s="22"/>
-      <c r="DG6" s="18"/>
-      <c r="DH6" s="18"/>
-      <c r="DI6" s="18"/>
-      <c r="DJ6" s="6"/>
-      <c r="DK6" s="30" t="s">
+      <c r="DC6" s="10"/>
+      <c r="DD6" s="11"/>
+      <c r="DE6" s="11"/>
+      <c r="DF6" s="10"/>
+      <c r="DG6" s="1"/>
+      <c r="DH6" s="1"/>
+      <c r="DI6" s="1"/>
+      <c r="DJ6" s="27"/>
+      <c r="DK6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="DL6" s="30" t="s">
+      <c r="DL6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="DM6" s="8"/>
-      <c r="DN6" s="9"/>
+      <c r="DM6" s="2"/>
+      <c r="DN6" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="142">
-    <mergeCell ref="DG5:DG6"/>
-    <mergeCell ref="DH5:DH6"/>
-    <mergeCell ref="DI5:DI6"/>
-    <mergeCell ref="AR5:AR6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AU5:AU6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="AW5:AW6"/>
-    <mergeCell ref="AL5:AL6"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AO5:AO6"/>
-    <mergeCell ref="AP5:AP6"/>
-    <mergeCell ref="AQ5:AQ6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="AI5:AI6"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AK5:AK6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="DH4:DI4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="CY4:CY6"/>
-    <mergeCell ref="CZ4:CZ6"/>
-    <mergeCell ref="DA4:DB5"/>
-    <mergeCell ref="DC4:DC6"/>
-    <mergeCell ref="DD4:DE4"/>
-    <mergeCell ref="DF4:DF6"/>
-    <mergeCell ref="DD5:DD6"/>
-    <mergeCell ref="DE5:DE6"/>
-    <mergeCell ref="CL4:CL6"/>
-    <mergeCell ref="CM4:CM6"/>
-    <mergeCell ref="CN4:CN6"/>
-    <mergeCell ref="CO4:CO6"/>
-    <mergeCell ref="CP4:CP6"/>
-    <mergeCell ref="CQ4:CX5"/>
-    <mergeCell ref="CF4:CF6"/>
-    <mergeCell ref="CG4:CG6"/>
-    <mergeCell ref="CH4:CH6"/>
-    <mergeCell ref="CI4:CI6"/>
-    <mergeCell ref="CJ4:CJ6"/>
-    <mergeCell ref="CK4:CK6"/>
-    <mergeCell ref="BZ4:BZ6"/>
-    <mergeCell ref="CA4:CA6"/>
-    <mergeCell ref="CB4:CB6"/>
-    <mergeCell ref="CC4:CC6"/>
-    <mergeCell ref="CD4:CD6"/>
-    <mergeCell ref="CE4:CE6"/>
-    <mergeCell ref="BS4:BS6"/>
-    <mergeCell ref="BT4:BT6"/>
-    <mergeCell ref="BU4:BV4"/>
-    <mergeCell ref="BW4:BW6"/>
-    <mergeCell ref="BX4:BX6"/>
-    <mergeCell ref="BY4:BY6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BL4:BL6"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BO4:BO6"/>
-    <mergeCell ref="BP4:BP6"/>
-    <mergeCell ref="BQ4:BQ6"/>
-    <mergeCell ref="BR4:BR6"/>
-    <mergeCell ref="BM5:BM6"/>
-    <mergeCell ref="BN5:BN6"/>
-    <mergeCell ref="BE4:BE6"/>
-    <mergeCell ref="BF4:BG4"/>
-    <mergeCell ref="BH4:BH6"/>
-    <mergeCell ref="BI4:BI6"/>
-    <mergeCell ref="BJ4:BJ6"/>
-    <mergeCell ref="BK4:BK6"/>
-    <mergeCell ref="BF5:BF6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="AZ4:AZ6"/>
-    <mergeCell ref="BA4:BA6"/>
-    <mergeCell ref="BB4:BB6"/>
-    <mergeCell ref="BC4:BC6"/>
-    <mergeCell ref="BD4:BD6"/>
-    <mergeCell ref="AX5:AX6"/>
-    <mergeCell ref="AY5:AY6"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AV4:AW4"/>
+    <mergeCell ref="AH2:AY3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:O3"/>
+    <mergeCell ref="P2:AG3"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AD4:AE4"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="DC2:DF3"/>
     <mergeCell ref="DG2:DI3"/>
     <mergeCell ref="DJ2:DJ6"/>
@@ -2024,16 +1925,115 @@
     <mergeCell ref="CA2:CI3"/>
     <mergeCell ref="CJ2:CL3"/>
     <mergeCell ref="CM2:DB3"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:O3"/>
-    <mergeCell ref="P2:AG3"/>
-    <mergeCell ref="AH2:AY3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="BK4:BK6"/>
+    <mergeCell ref="BF5:BF6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BL4:BL6"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BO4:BO6"/>
+    <mergeCell ref="BP4:BP6"/>
+    <mergeCell ref="BQ4:BQ6"/>
+    <mergeCell ref="BD4:BD6"/>
+    <mergeCell ref="CP4:CP6"/>
+    <mergeCell ref="CQ4:CX5"/>
+    <mergeCell ref="CF4:CF6"/>
+    <mergeCell ref="CG4:CG6"/>
+    <mergeCell ref="CH4:CH6"/>
+    <mergeCell ref="CI4:CI6"/>
+    <mergeCell ref="CJ4:CJ6"/>
+    <mergeCell ref="CK4:CK6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AK5:AK6"/>
+    <mergeCell ref="AL5:AL6"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AO5:AO6"/>
+    <mergeCell ref="AP5:AP6"/>
+    <mergeCell ref="CE4:CE6"/>
+    <mergeCell ref="BS4:BS6"/>
+    <mergeCell ref="BT4:BT6"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="BW4:BW6"/>
+    <mergeCell ref="BX4:BX6"/>
+    <mergeCell ref="BY4:BY6"/>
+    <mergeCell ref="CN4:CN6"/>
+    <mergeCell ref="CO4:CO6"/>
+    <mergeCell ref="DH4:DI4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="CY4:CY6"/>
+    <mergeCell ref="CZ4:CZ6"/>
+    <mergeCell ref="DA4:DB5"/>
+    <mergeCell ref="DC4:DC6"/>
+    <mergeCell ref="DD4:DE4"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AR5:AR6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AU5:AU6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="AW5:AW6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="AX5:AX6"/>
+    <mergeCell ref="AY5:AY6"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="DG5:DG6"/>
+    <mergeCell ref="DH5:DH6"/>
+    <mergeCell ref="DI5:DI6"/>
+    <mergeCell ref="DF4:DF6"/>
+    <mergeCell ref="DD5:DD6"/>
+    <mergeCell ref="DE5:DE6"/>
+    <mergeCell ref="CL4:CL6"/>
+    <mergeCell ref="CM4:CM6"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AV4:AW4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="AZ4:AZ6"/>
+    <mergeCell ref="BA4:BA6"/>
+    <mergeCell ref="BB4:BB6"/>
+    <mergeCell ref="BC4:BC6"/>
+    <mergeCell ref="BR4:BR6"/>
+    <mergeCell ref="BM5:BM6"/>
+    <mergeCell ref="BN5:BN6"/>
+    <mergeCell ref="BE4:BE6"/>
+    <mergeCell ref="BF4:BG4"/>
+    <mergeCell ref="BH4:BH6"/>
+    <mergeCell ref="BI4:BI6"/>
+    <mergeCell ref="BJ4:BJ6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BZ4:BZ6"/>
+    <mergeCell ref="CA4:CA6"/>
+    <mergeCell ref="CB4:CB6"/>
+    <mergeCell ref="CC4:CC6"/>
+    <mergeCell ref="CD4:CD6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
